--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H2">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I2">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J2">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N2">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O2">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P2">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q2">
-        <v>0.2431669595141111</v>
+        <v>0.282060763866</v>
       </c>
       <c r="R2">
-        <v>2.188502635627</v>
+        <v>2.538546874794</v>
       </c>
       <c r="S2">
-        <v>0.05786594036196131</v>
+        <v>0.04747854270261916</v>
       </c>
       <c r="T2">
-        <v>0.05786594036196133</v>
+        <v>0.04747854270261918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H3">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I3">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J3">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q3">
-        <v>0.04566752350844443</v>
+        <v>0.039714182928</v>
       </c>
       <c r="R3">
-        <v>0.411007711576</v>
+        <v>0.357427646352</v>
       </c>
       <c r="S3">
-        <v>0.01086740648112089</v>
+        <v>0.006684983420602465</v>
       </c>
       <c r="T3">
-        <v>0.01086740648112089</v>
+        <v>0.006684983420602466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H4">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I4">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J4">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N4">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O4">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P4">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q4">
-        <v>0.01352525621455555</v>
+        <v>0.008482117391999999</v>
       </c>
       <c r="R4">
-        <v>0.121727305931</v>
+        <v>0.07633905652799999</v>
       </c>
       <c r="S4">
-        <v>0.003218577355474565</v>
+        <v>0.001427772396574882</v>
       </c>
       <c r="T4">
-        <v>0.003218577355474566</v>
+        <v>0.001427772396574882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H5">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I5">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J5">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N5">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q5">
-        <v>0.0009879907387777777</v>
+        <v>0.001663229862</v>
       </c>
       <c r="R5">
-        <v>0.008891916648999999</v>
+        <v>0.014969068758</v>
       </c>
       <c r="S5">
-        <v>0.0002351101205629349</v>
+        <v>0.0002799670856197283</v>
       </c>
       <c r="T5">
-        <v>0.000235110120562935</v>
+        <v>0.0002799670856197283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>1.768273</v>
       </c>
       <c r="I6">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J6">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N6">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O6">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P6">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q6">
-        <v>2.680858458397889</v>
+        <v>3.575805000671222</v>
       </c>
       <c r="R6">
-        <v>24.127726125581</v>
+        <v>32.182245006041</v>
       </c>
       <c r="S6">
-        <v>0.6379583640083695</v>
+        <v>0.601905802471921</v>
       </c>
       <c r="T6">
-        <v>0.6379583640083697</v>
+        <v>0.6019058024719212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.768273</v>
       </c>
       <c r="I7">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J7">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>2.562536</v>
       </c>
       <c r="O7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q7">
         <v>0.5034736911475555</v>
@@ -886,10 +886,10 @@
         <v>4.531263220327999</v>
       </c>
       <c r="S7">
-        <v>0.1198105969823187</v>
+        <v>0.08474839540656846</v>
       </c>
       <c r="T7">
-        <v>0.1198105969823187</v>
+        <v>0.08474839540656848</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.768273</v>
       </c>
       <c r="I8">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J8">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N8">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O8">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P8">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q8">
-        <v>0.1491127643214444</v>
+        <v>0.1075314317768889</v>
       </c>
       <c r="R8">
-        <v>1.342014878893</v>
+        <v>0.967782885992</v>
       </c>
       <c r="S8">
-        <v>0.03548405731055405</v>
+        <v>0.0181004816321006</v>
       </c>
       <c r="T8">
-        <v>0.03548405731055406</v>
+        <v>0.01810048163210061</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.768273</v>
       </c>
       <c r="I9">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J9">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N9">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q9">
-        <v>0.01089236520522222</v>
+        <v>0.02108547667633333</v>
       </c>
       <c r="R9">
-        <v>0.09803128684699999</v>
+        <v>0.189769290087</v>
       </c>
       <c r="S9">
-        <v>0.002592033706493398</v>
+        <v>0.003549262545633514</v>
       </c>
       <c r="T9">
-        <v>0.002592033706493399</v>
+        <v>0.003549262545633514</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H10">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I10">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J10">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N10">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O10">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P10">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q10">
-        <v>0.08550284626766666</v>
+        <v>0.756091175246111</v>
       </c>
       <c r="R10">
-        <v>0.7695256164090001</v>
+        <v>6.804820577215</v>
       </c>
       <c r="S10">
-        <v>0.02034693616595402</v>
+        <v>0.1272708286646004</v>
       </c>
       <c r="T10">
-        <v>0.02034693616595403</v>
+        <v>0.1272708286646004</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H11">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I11">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J11">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>2.562536</v>
       </c>
       <c r="O11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q11">
-        <v>0.01605770475466666</v>
+        <v>0.1064577108577777</v>
       </c>
       <c r="R11">
-        <v>0.144519342792</v>
+        <v>0.9581193977199999</v>
       </c>
       <c r="S11">
-        <v>0.003821218916995185</v>
+        <v>0.01791974502836322</v>
       </c>
       <c r="T11">
-        <v>0.003821218916995187</v>
+        <v>0.01791974502836322</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H12">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I12">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J12">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N12">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O12">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P12">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q12">
-        <v>0.004755777286333333</v>
+        <v>0.02273713656444444</v>
       </c>
       <c r="R12">
-        <v>0.042801995577</v>
+        <v>0.20463422908</v>
       </c>
       <c r="S12">
-        <v>0.001131722522564851</v>
+        <v>0.003827282088135856</v>
       </c>
       <c r="T12">
-        <v>0.001131722522564851</v>
+        <v>0.003827282088135857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H13">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I13">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J13">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N13">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q13">
-        <v>0.0003473992536666666</v>
+        <v>0.004458448611666666</v>
       </c>
       <c r="R13">
-        <v>0.003126593283</v>
+        <v>0.040126037505</v>
       </c>
       <c r="S13">
-        <v>8.26698846530531E-05</v>
+        <v>0.0007504788680818189</v>
       </c>
       <c r="T13">
-        <v>8.266988465305313E-05</v>
+        <v>0.0007504788680818193</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H14">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I14">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J14">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N14">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O14">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P14">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q14">
-        <v>0.2811677191591111</v>
+        <v>0.3612400788254445</v>
       </c>
       <c r="R14">
-        <v>2.530509472432</v>
+        <v>3.251160709429</v>
       </c>
       <c r="S14">
-        <v>0.06690890284222864</v>
+        <v>0.06080658746481825</v>
       </c>
       <c r="T14">
-        <v>0.06690890284222868</v>
+        <v>0.06080658746481827</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H15">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I15">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J15">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>2.562536</v>
       </c>
       <c r="O15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q15">
-        <v>0.05280418626844444</v>
+        <v>0.0508626381591111</v>
       </c>
       <c r="R15">
-        <v>0.475237676416</v>
+        <v>0.4577637434319999</v>
       </c>
       <c r="S15">
-        <v>0.01256570341454792</v>
+        <v>0.008561573416685753</v>
       </c>
       <c r="T15">
-        <v>0.01256570341454792</v>
+        <v>0.008561573416685756</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H16">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I16">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J16">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N16">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O16">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P16">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q16">
-        <v>0.01563890689955555</v>
+        <v>0.01086319384977778</v>
       </c>
       <c r="R16">
-        <v>0.140750162096</v>
+        <v>0.09776874464799999</v>
       </c>
       <c r="S16">
-        <v>0.003721558454257974</v>
+        <v>0.00182857270190381</v>
       </c>
       <c r="T16">
-        <v>0.003721558454257977</v>
+        <v>0.00182857270190381</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H17">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I17">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J17">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N17">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q17">
-        <v>0.001142388353777778</v>
+        <v>0.002130127133666667</v>
       </c>
       <c r="R17">
-        <v>0.010281495184</v>
+        <v>0.019171144203</v>
       </c>
       <c r="S17">
-        <v>0.0002718518029011581</v>
+        <v>0.0003585586690314979</v>
       </c>
       <c r="T17">
-        <v>0.0002718518029011582</v>
+        <v>0.000358558669031498</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H18">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I18">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J18">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N18">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O18">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P18">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q18">
-        <v>0.07787237256755557</v>
+        <v>0.07320775278155556</v>
       </c>
       <c r="R18">
-        <v>0.7008513531080002</v>
+        <v>0.6588697750339999</v>
       </c>
       <c r="S18">
-        <v>0.01853112806050078</v>
+        <v>0.01232286748770608</v>
       </c>
       <c r="T18">
-        <v>0.01853112806050079</v>
+        <v>0.01232286748770608</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H19">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I19">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J19">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>2.562536</v>
       </c>
       <c r="O19">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P19">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q19">
-        <v>0.01462467767822222</v>
+        <v>0.01030765869688889</v>
       </c>
       <c r="R19">
-        <v>0.131622099104</v>
+        <v>0.09276892827199998</v>
       </c>
       <c r="S19">
-        <v>0.003480204416060086</v>
+        <v>0.001735060938276268</v>
       </c>
       <c r="T19">
-        <v>0.003480204416060088</v>
+        <v>0.001735060938276269</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H20">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I20">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J20">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N20">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O20">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P20">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q20">
-        <v>0.004331360613777778</v>
+        <v>0.002201499934222222</v>
       </c>
       <c r="R20">
-        <v>0.038982245524</v>
+        <v>0.019813499408</v>
       </c>
       <c r="S20">
-        <v>0.00103072496141676</v>
+        <v>0.0003705726638620315</v>
       </c>
       <c r="T20">
-        <v>0.00103072496141676</v>
+        <v>0.0003705726638620316</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H21">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I21">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J21">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N21">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O21">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P21">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q21">
-        <v>0.0003163965328888889</v>
+        <v>0.0004316847153333333</v>
       </c>
       <c r="R21">
-        <v>0.002847568796</v>
+        <v>0.003885162438</v>
       </c>
       <c r="S21">
-        <v>7.52922310640534E-05</v>
+        <v>7.266434689497857E-05</v>
       </c>
       <c r="T21">
-        <v>7.529223106405343E-05</v>
+        <v>7.26643468949786E-05</v>
       </c>
     </row>
   </sheetData>
